--- a/任务管理.xlsx
+++ b/任务管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13490"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="任务管理" sheetId="2" r:id="rId1"/>
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>序号</t>
   </si>
   <si>
+    <t>概要</t>
+  </si>
+  <si>
     <t>任务描述</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
   </si>
   <si>
     <t>重要紧急程度</t>
+  </si>
+  <si>
+    <t>变更版本</t>
   </si>
   <si>
     <t>测试导入</t>
@@ -1046,24 +1052,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="38.5" customWidth="1"/>
-    <col min="3" max="3" width="11.3363636363636" customWidth="1"/>
-    <col min="4" max="4" width="10.3363636363636" customWidth="1"/>
-    <col min="5" max="5" width="11.5818181818182" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="15.9636363636364" customWidth="1"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="11.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="10.3363636363636" customWidth="1"/>
+    <col min="6" max="6" width="11.5818181818182" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="15.9636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.85" customHeight="1" spans="1:10">
+    <row r="1" ht="12.85" customHeight="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1094,80 +1100,86 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="12.85" customHeight="1" spans="1:10">
+    <row r="2" ht="12.85" customHeight="1" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2">
         <v>44971</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>44974</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
+      <c r="K2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" ht="12.85" customHeight="1" spans="1:10">
+    <row r="3" ht="12.85" customHeight="1" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2">
         <v>44971</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>44974</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
+      <c r="K3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="D2 D3">
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3">
       <formula1>"已停滞,待开始,进行中,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3">
+    <dataValidation type="list" allowBlank="1" sqref="H2 H3">
       <formula1>"安装部署,产品设计,应用改造"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I2 I3">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3">
       <formula1>"蔡梓佳"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1194,59 +1206,59 @@
   <sheetData>
     <row r="1" ht="12.85" customHeight="1" spans="1:3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="38.55" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="38.55" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" ht="38.55" customHeight="1" spans="1:3">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" ht="38.55" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="38.55" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1276,13 +1288,13 @@
   <sheetData>
     <row r="1" ht="12.85" customHeight="1" spans="1:3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/任务管理.xlsx
+++ b/任务管理.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>序号</t>
   </si>
@@ -24,7 +24,10 @@
     <t>概要</t>
   </si>
   <si>
-    <t>任务描述</t>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>问题类型</t>
   </si>
   <si>
     <t>任务执行人</t>
@@ -51,7 +54,10 @@
     <t>重要紧急程度</t>
   </si>
   <si>
-    <t>变更版本</t>
+    <t>影响版本</t>
+  </si>
+  <si>
+    <t>修复的版本</t>
   </si>
   <si>
     <t>测试导入</t>
@@ -727,11 +733,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1052,10 +1061,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" outlineLevelRow="2"/>
@@ -1069,14 +1078,14 @@
     <col min="11" max="11" width="15.9636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.85" customHeight="1" spans="1:12">
+    <row r="1" customHeight="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1105,6 +1114,12 @@
       </c>
       <c r="L1" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" ht="12.85" customHeight="1" spans="1:11">
@@ -1112,31 +1127,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3">
         <v>44971</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>44974</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2">
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="12.85" customHeight="1" spans="1:11">
@@ -1144,31 +1159,31 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3">
         <v>44971</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>44974</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1176,11 +1191,11 @@
     <dataValidation type="list" allowBlank="1" sqref="E2 E3">
       <formula1>"已停滞,待开始,进行中,已完成"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3">
+      <formula1>"蔡梓佳"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="H2 H3">
       <formula1>"安装部署,产品设计,应用改造"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2 J3">
-      <formula1>"蔡梓佳"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1206,59 +1221,59 @@
   <sheetData>
     <row r="1" ht="12.85" customHeight="1" spans="1:3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="38.55" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="38.55" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" ht="38.55" customHeight="1" spans="1:3">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" ht="38.55" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" ht="38.55" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1288,13 +1303,13 @@
   <sheetData>
     <row r="1" ht="12.85" customHeight="1" spans="1:3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
